--- a/src/main/resources/s1_template.xlsx
+++ b/src/main/resources/s1_template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\cmb_audit_v3\cmb_audit\km-engine\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_workspace\bar_code_bird\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80348DA7-F5F7-40B4-9A2D-532FA80F6542}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD3D20C-DAC6-4116-B98E-0246FE754F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="智审模型" sheetId="1" r:id="rId1"/>
+    <sheet name="数据" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,25 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>智审模型编码</t>
-  </si>
-  <si>
-    <t>业务条线</t>
-  </si>
-  <si>
-    <t>智审模型名称</t>
-  </si>
-  <si>
-    <t>智审模型描述</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>接单卡号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品名码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸箱编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KC品项信息表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造指示图号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,32 +76,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -104,19 +138,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 4" xfId="1" xr:uid="{E33A89E9-49C2-406C-8759-E4DB7E190B45}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF00B050"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF00B050"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF00B050"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF00B050"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF00B050"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF00B050"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF00B050"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF00B050"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -392,149 +476,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="15.58203125" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A3:H22">
+    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/s1_template.xlsx
+++ b/src/main/resources/s1_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_workspace\bar_code_bird\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD3D20C-DAC6-4116-B98E-0246FE754F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A364DE1-9E76-4953-BE58-B683D359A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -144,12 +151,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +489,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -506,19 +516,19 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">

--- a/src/main/resources/s1_template.xlsx
+++ b/src/main/resources/s1_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java_workspace\bar_code_bird\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A364DE1-9E76-4953-BE58-B683D359A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911E22E5-7D07-4D96-8E3B-1B5E962DE8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>接单卡号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>KC品项信息表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>制造指示图号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -67,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,25 +75,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -151,15 +144,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -505,35 +495,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -705,33 +710,10 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A3:H22">
+  <conditionalFormatting sqref="A1:H20">
     <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
